--- a/test_cases/PE-53/TC-5303.xlsx
+++ b/test_cases/PE-53/TC-5303.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Santi\Desktop\Test_Cases\PE-53\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\.Proyectos\TestingAplicaciones-TestUADE-TPO\test_cases\PE-53\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61B071AA-496E-49FE-BBF3-714EC9FC4E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E396747C-C4F7-4CBB-859D-029B32DEFF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC - Template" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -177,6 +177,9 @@
   </si>
   <si>
     <t>Show an error. The password can not be the same actual password</t>
+  </si>
+  <si>
+    <t>User must be logged</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1071,7 @@
   <dimension ref="A1:W30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1213,7 +1216,9 @@
       <c r="A10" s="15">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D10" s="4"/>
       <c r="E10" s="3"/>
     </row>
@@ -1576,6 +1581,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F6A5A8B846BB61408BAC96912A48B9A8" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e2efab9668351af1ee38b12b0ffd9ede">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2835a775-56e5-473e-93b2-b8b6176d193a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2647aa4c78d06f7c1205c6a6e1c2c79d" ns2:_="">
     <xsd:import namespace="2835a775-56e5-473e-93b2-b8b6176d193a"/>
@@ -1707,15 +1721,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1723,6 +1728,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3F87F2-577F-4B65-8FEE-A540B5E93770}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1740,14 +1753,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
   <ds:schemaRefs>

--- a/test_cases/PE-53/TC-5303.xlsx
+++ b/test_cases/PE-53/TC-5303.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\.Proyectos\TestingAplicaciones-TestUADE-TPO\test_cases\PE-53\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E396747C-C4F7-4CBB-859D-029B32DEFF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B40189-6ABF-4675-A7FE-2DE073C73C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DCE1F527-8622-40D5-806A-6A7E2BCE07A3}"/>
   </bookViews>
   <sheets>
     <sheet name="TC - Template" sheetId="1" r:id="rId1"/>
+    <sheet name="Defect Report - Template" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="72">
   <si>
     <t>Test Case ID</t>
   </si>
@@ -180,13 +181,85 @@
   </si>
   <si>
     <t>User must be logged</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Description / Overview</t>
+  </si>
+  <si>
+    <t>Reproduction Steps</t>
+  </si>
+  <si>
+    <t>1- Open the application page http://127.0.0.1:5000/account/profile/edit</t>
+  </si>
+  <si>
+    <t>2- Go to edit user</t>
+  </si>
+  <si>
+    <t>Expected Behavior</t>
+  </si>
+  <si>
+    <t>A page showing the correspondent field</t>
+  </si>
+  <si>
+    <t>Actual Behavior</t>
+  </si>
+  <si>
+    <t>The Page dont show the field</t>
+  </si>
+  <si>
+    <t>Incidence / Severity / Probability of reproduction</t>
+  </si>
+  <si>
+    <t>100% reproduction rate</t>
+  </si>
+  <si>
+    <t>Story and Acceptance Criteria affected</t>
+  </si>
+  <si>
+    <t>Browsers tested</t>
+  </si>
+  <si>
+    <t>Google Chrome, v107</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>QA environment, http://127.0.0.1:5000/account/profile/edit</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Falta un campo para cambiar la contraseña.</t>
+  </si>
+  <si>
+    <t>Field lack: A field to edit the password is not in the form.</t>
+  </si>
+  <si>
+    <t>You cant see anythin of the field "Password"</t>
+  </si>
+  <si>
+    <t>3- Complete the field "Password"</t>
+  </si>
+  <si>
+    <t>Test Case TC-003 covers this scenario</t>
+  </si>
+  <si>
+    <t>Critical severity - The field not appear.</t>
+  </si>
+  <si>
+    <t>Affected User Story: US-3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,8 +362,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,8 +400,14 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -586,6 +680,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -594,7 +773,7 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -750,10 +929,43 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
-    <cellStyle name="Celda de comprobación" xfId="4" builtinId="23"/>
-    <cellStyle name="Entrada" xfId="3" builtinId="20"/>
+    <cellStyle name="Check Cell" xfId="4" builtinId="23"/>
+    <cellStyle name="Input" xfId="3" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{C558A088-66ED-4D97-B86E-4769E988BE41}"/>
     <cellStyle name="Note 2" xfId="2" xr:uid="{4BAC1941-5BF2-43E8-B9DC-8FEA0AFAB3F9}"/>
@@ -772,7 +984,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1070,11 +1282,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F3CCAC7-6C0E-44CD-ADA1-CF7A0722318C}">
   <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.42578125" customWidth="1"/>
@@ -1082,7 +1294,7 @@
     <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
     <col min="6" max="6" width="2.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.85546875" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" customWidth="1"/>
     <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" customWidth="1"/>
@@ -1517,8 +1729,10 @@
       </c>
       <c r="N25" s="40"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G26" s="41"/>
+    <row r="26" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="G26" s="41" t="s">
+        <v>65</v>
+      </c>
       <c r="H26" s="41"/>
       <c r="I26" s="41"/>
       <c r="J26" s="41"/>
@@ -1580,16 +1794,168 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C84218-46A8-4DB0-92B0-80C9193086C6}">
+  <dimension ref="A1:B23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="68.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="53" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="55"/>
+      <c r="B2" s="55"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="55"/>
+      <c r="B4" s="55"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="59"/>
+      <c r="B6" s="60" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="61"/>
+      <c r="B7" s="62" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="63" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="64" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="55"/>
+      <c r="B10" s="55"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="55"/>
+      <c r="B12" s="55"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="61"/>
+      <c r="B14" s="62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="55"/>
+      <c r="B15" s="55"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" s="65" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="55"/>
+      <c r="B17" s="55"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="68"/>
+      <c r="B23" s="69"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F6A5A8B846BB61408BAC96912A48B9A8" ma:contentTypeVersion="2" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="e2efab9668351af1ee38b12b0ffd9ede">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2835a775-56e5-473e-93b2-b8b6176d193a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2647aa4c78d06f7c1205c6a6e1c2c79d" ns2:_="">
     <xsd:import namespace="2835a775-56e5-473e-93b2-b8b6176d193a"/>
@@ -1721,6 +2087,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1728,14 +2103,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A3F87F2-577F-4B65-8FEE-A540B5E93770}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1753,6 +2120,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCD417DE-AE4D-4310-B006-24C26EFB9650}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{86567253-966F-4F1D-B2AE-0608F592F601}">
   <ds:schemaRefs>
